--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2584.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2584.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8273571778660745</v>
+        <v>1.534624457359314</v>
       </c>
       <c r="B1">
-        <v>1.315320967211616</v>
+        <v>5.458083629608154</v>
       </c>
       <c r="C1">
-        <v>2.942275973902326</v>
+        <v>3.621304035186768</v>
       </c>
       <c r="D1">
-        <v>2.326462620000045</v>
+        <v>0.9503316283226013</v>
       </c>
       <c r="E1">
-        <v>0.9810883116390914</v>
+        <v>0.6074384450912476</v>
       </c>
     </row>
   </sheetData>
